--- a/biology/Botanique/Diplôme_national_d'œnologue/Diplôme_national_d'œnologue.xlsx
+++ b/biology/Botanique/Diplôme_national_d'œnologue/Diplôme_national_d'œnologue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dipl%C3%B4me_national_d%27%C5%93nologue</t>
+          <t>Diplôme_national_d'œnologue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le diplôme national d'œnologue (DNO) est une formation universitaire française axée sur l'œnologie, la science du vin, essentiellement et les disciplines qui l'entourent. Il se prépare en deux ans et fait partie du cursus de formation en viticulture-œnologie.
-Selon l'Union des œnologues de France[1] (syndicat professionnel des œnologues de France), l'œnologue est « un expert qualifié qui, en raison de ses connaissances scientifiques et techniques, assure la pleine responsabilité de l'élaboration des jus de raisin, des vins et des produits dérivés du raisin. ».
+Selon l'Union des œnologues de France (syndicat professionnel des œnologues de France), l'œnologue est « un expert qualifié qui, en raison de ses connaissances scientifiques et techniques, assure la pleine responsabilité de l'élaboration des jus de raisin, des vins et des produits dérivés du raisin. ».
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dipl%C3%B4me_national_d%27%C5%93nologue</t>
+          <t>Diplôme_national_d'œnologue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Boite ancienne de "Rince-fût" de la marque Médicagro, soufre vendu à l'époque par les pharmaciens.
-Le diplôme national d'œnologue est né en 1955, à la faculté de pharmacie de Montpellier du fait des modifications structurelles apparues dans la filière vin lors de la première moitié du XXe siècle[2], et notamment l'augmentation des demandes d'analyses sur les vins, réalisées à l'époque par le laboratoire de pharmacie.
-En effet, la crise phylloxérique apparue à partir de 1880 avait provoqué d'abord d'importantes pénuries puis l'apparition de pratiques frauduleuses conduisant à une crise de surproduction comme en témoigne la révolte des vignerons du Languedoc en 1907[2].
-En outre, les prémices de la mondialisation des échanges parallèlement à un développement des techniques et des connaissances viti-vinicoles (en lien avec la révolution industrielle) conduit la « profession » à faire face à un fort besoin de structuration. La révolte des vignerons de la Champagne en 1911 ou la création de l'OIV en 1924 en sont des exemples[2].
+Le diplôme national d'œnologue est né en 1955, à la faculté de pharmacie de Montpellier du fait des modifications structurelles apparues dans la filière vin lors de la première moitié du XXe siècle, et notamment l'augmentation des demandes d'analyses sur les vins, réalisées à l'époque par le laboratoire de pharmacie.
+En effet, la crise phylloxérique apparue à partir de 1880 avait provoqué d'abord d'importantes pénuries puis l'apparition de pratiques frauduleuses conduisant à une crise de surproduction comme en témoigne la révolte des vignerons du Languedoc en 1907.
+En outre, les prémices de la mondialisation des échanges parallèlement à un développement des techniques et des connaissances viti-vinicoles (en lien avec la révolution industrielle) conduit la « profession » à faire face à un fort besoin de structuration. La révolte des vignerons de la Champagne en 1911 ou la création de l'OIV en 1924 en sont des exemples.
 En 2007 et à la suite de la réforme LMD, l'entrée en formation du diplôme national d'œnologue (DNO) nécessite la possession d'un diplôme de niveau licence (niveau III en France selon la nomenclature des niveaux de formation de 1967 soit un équivalent européen à 180 crédits ECTS). Jeune diplômé, l'œnologue dispose depuis cette date d'un diplôme de niveau I selon la nomenclature des niveaux de formation de 1967 soit un équivalent de 300 crédits ECTS.
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dipl%C3%B4me_national_d%27%C5%93nologue</t>
+          <t>Diplôme_national_d'œnologue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,12 @@
           <t>Statut d'œnologue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, œnologue est un titre soumis à l'obtention d'un diplôme d'État délivré conjointement par le ministère de l'Agriculture et le ministère de l'Éducation nationale. Ce titre est réglementé par la loi no 55-308[3] et par le décret no 82-681[4] qui nécessite l'obtention du diplôme national d'œnologue[5]. De ce fait, l'œnologue est soumis à des devoirs et à des droits particuliers.
-Par ailleurs, lors de la cérémonie de remise du diplôme national d'œnologue les jeunes diplômés prêtent serment au code de déontologie de l'Union des œnologues de France[6] qui comporte onze commandements.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, œnologue est un titre soumis à l'obtention d'un diplôme d'État délivré conjointement par le ministère de l'Agriculture et le ministère de l'Éducation nationale. Ce titre est réglementé par la loi no 55-308 et par le décret no 82-681 qui nécessite l'obtention du diplôme national d'œnologue. De ce fait, l'œnologue est soumis à des devoirs et à des droits particuliers.
+Par ailleurs, lors de la cérémonie de remise du diplôme national d'œnologue les jeunes diplômés prêtent serment au code de déontologie de l'Union des œnologues de France qui comporte onze commandements.
 Le code ROME souvent associé est « A1413 : Fermentation de boissons alcoolisées ».
 </t>
         </is>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dipl%C3%B4me_national_d%27%C5%93nologue</t>
+          <t>Diplôme_national_d'œnologue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +597,48 @@
           <t>Programme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'organisation de la formation[7] et le programme de formation[8] sont définis pour l’ensemble des centres, seules des unités d'enseignements optionnelles peuvent être proposées ou non selon le lieu de formation. Au total, le diplôme s’acquiert en deux ans avec 120 ECTS pour environ 1500 heures de formation.
-Unités obligatoires
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'organisation de la formation et le programme de formation sont définis pour l’ensemble des centres, seules des unités d'enseignements optionnelles peuvent être proposées ou non selon le lieu de formation. Au total, le diplôme s’acquiert en deux ans avec 120 ECTS pour environ 1500 heures de formation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diplôme_national_d'œnologue</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dipl%C3%B4me_national_d%27%C5%93nologue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Programme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Unités obligatoires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La vigne et son milieu
 Bases de la viticulture et production des raisins
 Micro-organismes et fermentations
@@ -598,7 +652,43 @@
 Conduite d’entreprise (incluant la capacité professionnelle agricole)
 Effluents et produits dérivés de la vigne et du vin
 Stage pratique
-Unités d’approfondissement optionnelles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diplôme_national_d'œnologue</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dipl%C3%B4me_national_d%27%C5%93nologue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Programme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Unités d’approfondissement optionnelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Terroirs et conduite du vignoble
 Le monde du vin
 Conception et implantation rationnelle d’installation vinicole
@@ -609,33 +699,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dipl%C3%B4me_national_d%27%C5%93nologue</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dipl%C3%B4me_national_d%27%C5%93nologue</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diplôme_national_d'œnologue</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dipl%C3%B4me_national_d%27%C5%93nologue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Débouchés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les fonctions potentiellement accessibles à l'issue du diplôme sont [9]: 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les fonctions potentiellement accessibles à l'issue du diplôme sont : 
 Exploitant agricole
 Maître de chai
 Consultant en œnologie et conseil
@@ -661,31 +753,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Dipl%C3%B4me_national_d%27%C5%93nologue</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dipl%C3%B4me_national_d%27%C5%93nologue</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Diplôme_national_d'œnologue</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dipl%C3%B4me_national_d%27%C5%93nologue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Serment</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les œnologues prêtent serment sur le code de déontologie de l'Union des Œnologues de France :
@@ -701,66 +795,70 @@
 9e commandement : De collaborer et d’agir avec loyauté avec mes confrères.
 10e commandement : De faire preuve de la plus stricte objectivité et de m’abstenir de propos dénigrants.
 11e commandement : D’éclairer de mes conseils et de mon expérience les générations d’œnologues à venir.  »
-— Union des œnologues de France, [10]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Dipl%C3%B4me_national_d%27%C5%93nologue</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dipl%C3%B4me_national_d%27%C5%93nologue</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+— Union des œnologues de France, </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Diplôme_national_d'œnologue</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dipl%C3%B4me_national_d%27%C5%93nologue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Œnopiades</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme est issu de la contraction d’œnologie et de l'emprunt du mot olympiades. Chaque année depuis 2003, les cinq centres de formations se réunissent, généralement lors du premier weekend d'avril. C'est l'occasion pour environ 250 étudiants œnologues de participer à des conférences sur les technologies viti-vinicole, de se rencontrer, et de participer à des épreuves, de dégustation, de culture générale, de diverses activités autour de l’œnologie, et sportives. Un roulement annuel dans l'organisation permet à chaque centre de recevoir les autres écoles à tour de rôle. Au terme de ces œnopiades, un vainqueur remporte le titre par la somme des points accumulés lors des différentes épreuves[11].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme est issu de la contraction d’œnologie et de l'emprunt du mot olympiades. Chaque année depuis 2003, les cinq centres de formations se réunissent, généralement lors du premier weekend d'avril. C'est l'occasion pour environ 250 étudiants œnologues de participer à des conférences sur les technologies viti-vinicole, de se rencontrer, et de participer à des épreuves, de dégustation, de culture générale, de diverses activités autour de l’œnologie, et sportives. Un roulement annuel dans l'organisation permet à chaque centre de recevoir les autres écoles à tour de rôle. Au terme de ces œnopiades, un vainqueur remporte le titre par la somme des points accumulés lors des différentes épreuves.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Dipl%C3%B4me_national_d%27%C5%93nologue</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dipl%C3%B4me_national_d%27%C5%93nologue</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Diplôme_national_d'œnologue</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dipl%C3%B4me_national_d%27%C5%93nologue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Centres universitaires</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">En France il existe cinq centres dispensant les cours du diplôme national d’œnologue :
 Institut de la Vigne et du Vin Jules Guyot à Dijon
